--- a/Meta_internship_JoostdeBruijn_2025.xlsx
+++ b/Meta_internship_JoostdeBruijn_2025.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joost\Documents\05_WUR\Year_3\Internship\Offshore_Windparks\OWF_Project_folder\Internship_OWF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EFA009-37CE-4041-9782-13979EA7ED21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="META_script&amp;datastucture" sheetId="1" r:id="rId1"/>
+    <sheet name="META_deployments&amp;structures" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,359 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
+  <si>
+    <t xml:space="preserve">Practical information </t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Performed by</t>
+  </si>
+  <si>
+    <t>Internship period</t>
+  </si>
+  <si>
+    <t>Research facility &amp; group</t>
+  </si>
+  <si>
+    <t>Wageningen University and Research, Marine Animal Ecology</t>
+  </si>
+  <si>
+    <t>02/09/2024 - 30/03/2025</t>
+  </si>
+  <si>
+    <t>Joost de Bruijn</t>
+  </si>
+  <si>
+    <t>Meta information on the R scripts and data structure</t>
+  </si>
+  <si>
+    <t>Timestamp last edit</t>
+  </si>
+  <si>
+    <t>By: Joost de Bruijn</t>
+  </si>
+  <si>
+    <t>R scripts eleborations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script name </t>
+  </si>
+  <si>
+    <t>1_Raw data format - CPOD-WBAT data</t>
+  </si>
+  <si>
+    <t>2_Data format - CPOD-WBAT workspace</t>
+  </si>
+  <si>
+    <t>3_Analysis &amp; plotting - CPOD</t>
+  </si>
+  <si>
+    <t>3_Analysis &amp; plotting - WBAT</t>
+  </si>
+  <si>
+    <t>3_Analysis, plotting &amp; GAMs - Interaction CPOD-WBAT</t>
+  </si>
+  <si>
+    <t>4_Maps &amp; distance calculations</t>
+  </si>
+  <si>
+    <t>x_Testing - GAM statistics</t>
+  </si>
+  <si>
+    <t>x_Testing - Heatmaps for loops WBAT</t>
+  </si>
+  <si>
+    <t>x_Testing - Maps</t>
+  </si>
+  <si>
+    <t>x_Testing - SunPosition function</t>
+  </si>
+  <si>
+    <t>x_Testing - Wreck distances</t>
+  </si>
+  <si>
+    <t>Below here are all the R scripts eleborated, and their function is given. The numbers before the name indicates the workflow of the data analysis, whereas the x before the name indicate suplimentary scripts.</t>
+  </si>
+  <si>
+    <t>General description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a working environment of the processed C-POD and Echosounder data. Making further wrangling steps and mutating SunAngle and SunPosition to that data. </t>
+  </si>
+  <si>
+    <t>Pre-processing the RAW text files from C-PODs and the Echosounders to separate datafiles ready for further data wrangling.</t>
+  </si>
+  <si>
+    <t>Plotting the C-POD data: wrangling steps, plotting on total overview, seasons, week number, day night, sun angle, influence of echosounder on harbour porpoises.</t>
+  </si>
+  <si>
+    <t>Plotting the echosounder data: wrangling steps, plotting on total overview, seasons, week number, day night, sun angle</t>
+  </si>
+  <si>
+    <t>Plotting the interaction between the two taxonomic groups: wrangling steps to merge and prep the data, plotting on pairwise interaction. Statistics: modelling the data in GAM models.</t>
+  </si>
+  <si>
+    <t>Maps of the study area showing the bathymetry, wind farm polygons, deployment locations, boarder between Belgium and the Netherlands. With the scripts for the distance calculations of frame deployments to nearest hard structure (shipwreck or wind turbine).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplementary script(x): Working out how GAM models are working and how they are performed in R studio. Setting different spline parameters. </t>
+  </si>
+  <si>
+    <t>Supplementary script(x): Learning how For Loops are working and implementing this for echosounder data visualisation. Heatmaps are showing the SA value of the integration point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplementary script(x): First trials for mapping the study area and the OWF polygons. Fixing the coordinated errors between ETN and GIT data base. Correct coordinates have been updated on the GitHub page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplementary script(x): Figuring out how the SunPos function is working and how to integrate it in “2_Data format - CPOD-WBAT workspace” without accidentally destroying the entire For Loop. </t>
+  </si>
+  <si>
+    <t>Supplementary script(x): Script for the distance calculations of frame deployments to wrecks. Code was later converted to distance to nearest hard structure in “4_Maps &amp; distance calculations”</t>
+  </si>
+  <si>
+    <t>Data structure eleboration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The folder and data stucture of the Internship_OWF GitHub page is eleborated below. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data  </t>
+  </si>
+  <si>
+    <t>figures</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data folder: containing the pre-processed C-POD and echosounder data all in separate R workspaces. Furthermore, containing the wreck locations, data overview of deployments, and polygons for maps. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">results folder: containing the CPOD_WBAT_workspace used for the data analysis; SA_heatmaps produced with “x_Testing - Heatmaps for loops WBAT”; Map_files with distances to other structures and coordinates of all the structures; Archive of older CPOD_WBAT_workspaces. </t>
+  </si>
+  <si>
+    <t>report folder: final internship report in PDF and WORD format</t>
+  </si>
+  <si>
+    <t>presentation folder: final internship presentation in ppt format</t>
+  </si>
+  <si>
+    <t>function folder: containing functions used in “2_Data format - CPOD-WBAT workspace” for creating one CPOD_WBAT_workspace workspace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figures folder: containing all figures created during the internship. There are several iterations of the plots, maps and visualisations. </t>
+  </si>
+  <si>
+    <t>Meta information on the deployments and structures</t>
+  </si>
+  <si>
+    <t>Meta information on deployments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta information of 14 deployments made during the study on deployment location type (Control or OWF), meters distance to nearest hard substrate (shipwreck or turbine), echosounder frequency, POD type, deployment period of the frames and year of deployment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station Name </t>
+  </si>
+  <si>
+    <t>Birkenfels</t>
+  </si>
+  <si>
+    <t>Belwind</t>
+  </si>
+  <si>
+    <t>Grafton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cpower (A) </t>
+  </si>
+  <si>
+    <t>Gardencity</t>
+  </si>
+  <si>
+    <t>Cpower (B)</t>
+  </si>
+  <si>
+    <t>BSW1</t>
+  </si>
+  <si>
+    <t>Borselle IV</t>
+  </si>
+  <si>
+    <t>BSW2</t>
+  </si>
+  <si>
+    <t>Borselle III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cpower (B) </t>
+  </si>
+  <si>
+    <t>Location type</t>
+  </si>
+  <si>
+    <t>Pairing</t>
+  </si>
+  <si>
+    <t>Dist. nearest structure (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBAT freq (kHz) </t>
+  </si>
+  <si>
+    <t>POD type</t>
+  </si>
+  <si>
+    <t>Deployment period</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>70 &amp; 200</t>
+  </si>
+  <si>
+    <t>C-POD</t>
+  </si>
+  <si>
+    <t>12/07-30/08</t>
+  </si>
+  <si>
+    <t>OWF</t>
+  </si>
+  <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>05/07-03/09</t>
+  </si>
+  <si>
+    <t>07/05-16/06</t>
+  </si>
+  <si>
+    <t>F-POD</t>
+  </si>
+  <si>
+    <t>04/10-04/12</t>
+  </si>
+  <si>
+    <t>Meta information on the five OWFs included in this study showing country, number of turbines, power (MW), construction date, coastal distance (km), surface area (km2), turbine density (turbines/km2), yield per turbine (MW), lastly and yield per surface area (MW/km2).</t>
+  </si>
+  <si>
+    <t>Meta information on offshore wind farms included in the study</t>
+  </si>
+  <si>
+    <t>Name OWF</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Meta information on offshore wind farms</t>
+  </si>
+  <si>
+    <t>No. of Turbines</t>
+  </si>
+  <si>
+    <t>Power (MW)</t>
+  </si>
+  <si>
+    <t>Construct-ion date</t>
+  </si>
+  <si>
+    <t>Coastal distance (km)</t>
+  </si>
+  <si>
+    <t>Yield per Turbine (MW)</t>
+  </si>
+  <si>
+    <t>Belwind phase 1</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>C-Power (Zone A)</t>
+  </si>
+  <si>
+    <t>C-Power (Zone B)</t>
+  </si>
+  <si>
+    <t>Borssele II</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Borssele IV</t>
+  </si>
+  <si>
+    <t>Surface area (km2)</t>
+  </si>
+  <si>
+    <t>Turbine density (T/km2)</t>
+  </si>
+  <si>
+    <t>Yield per km2 (MW)</t>
+  </si>
+  <si>
+    <t>Meta information on the five shipwrecks included in the study showing the country, size metrics (m), coastal distance (km), bow degree from Nord and sinking date.</t>
+  </si>
+  <si>
+    <t>Meta information on shipwrecks included in the study</t>
+  </si>
+  <si>
+    <t>Name Wreck</t>
+  </si>
+  <si>
+    <t>Meta information on shipwrecks</t>
+  </si>
+  <si>
+    <t>Depth (m)</t>
+  </si>
+  <si>
+    <t>Length (m)</t>
+  </si>
+  <si>
+    <t>Width (m)</t>
+  </si>
+  <si>
+    <t>Height (m)</t>
+  </si>
+  <si>
+    <t>Bow degrees from Nord</t>
+  </si>
+  <si>
+    <t>Sinking date</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +385,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,12 +428,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +952,1945 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:N12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="M2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="M3" s="16">
+        <v>45744</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="M4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+    </row>
+    <row r="14" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:14" s="28" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+    </row>
+    <row r="19" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+    </row>
+    <row r="21" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+    </row>
+    <row r="32" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+    </row>
+    <row r="33" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:N34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:N35"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:N31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:N32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:N33"/>
+    <mergeCell ref="A25:N25"/>
+    <mergeCell ref="A26:N28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:N30"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E14:N14"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A9:N11"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0731A0D2-650D-466E-B90A-FE69DA9DA44D}">
+  <dimension ref="A1:O52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="M2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="M3" s="16">
+        <v>45744</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="M4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="32">
+        <v>1</v>
+      </c>
+      <c r="D13" s="32">
+        <v>156</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="32">
+        <v>2021</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="28">
+        <v>1</v>
+      </c>
+      <c r="D14" s="28">
+        <v>336</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="28">
+        <v>2021</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="32">
+        <v>2</v>
+      </c>
+      <c r="D15" s="32">
+        <v>61</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="32">
+        <v>2021</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="28">
+        <v>2</v>
+      </c>
+      <c r="D16" s="28">
+        <v>428</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="28">
+        <v>2021</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+      <c r="D17" s="32">
+        <v>95</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="32">
+        <v>2023</v>
+      </c>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+    </row>
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="28">
+        <v>1</v>
+      </c>
+      <c r="D18" s="28">
+        <v>336</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="28">
+        <v>2023</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="32">
+        <v>2</v>
+      </c>
+      <c r="D19" s="32">
+        <v>61</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="32">
+        <v>2023</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+    </row>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="28">
+        <v>2</v>
+      </c>
+      <c r="D20" s="28">
+        <v>452</v>
+      </c>
+      <c r="E20" s="28">
+        <v>70</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="28">
+        <v>2023</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="D21" s="32">
+        <v>98</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="32">
+        <v>2023</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="28">
+        <v>1</v>
+      </c>
+      <c r="D22" s="28">
+        <v>740</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="28">
+        <v>2023</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="32">
+        <v>2</v>
+      </c>
+      <c r="D23" s="32">
+        <v>40</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="32">
+        <v>2023</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="28">
+        <v>2</v>
+      </c>
+      <c r="D24" s="28">
+        <v>555</v>
+      </c>
+      <c r="E24" s="28">
+        <v>70</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="28">
+        <v>2023</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="32">
+        <v>1</v>
+      </c>
+      <c r="D25" s="32">
+        <v>61</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="32">
+        <v>2023</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="28">
+        <v>1</v>
+      </c>
+      <c r="D26" s="28">
+        <v>450</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="28">
+        <v>2023</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+    </row>
+    <row r="34" spans="1:14" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="35"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+    </row>
+    <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="37">
+        <v>55</v>
+      </c>
+      <c r="D35" s="37">
+        <v>165</v>
+      </c>
+      <c r="E35" s="37">
+        <v>2010</v>
+      </c>
+      <c r="F35" s="37">
+        <v>40.61</v>
+      </c>
+      <c r="G35" s="37">
+        <v>14.74</v>
+      </c>
+      <c r="H35" s="37">
+        <v>3.73</v>
+      </c>
+      <c r="I35" s="37">
+        <v>3</v>
+      </c>
+      <c r="J35" s="37">
+        <v>11.19</v>
+      </c>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+    </row>
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>141</v>
+      </c>
+      <c r="E36">
+        <v>2013</v>
+      </c>
+      <c r="F36">
+        <v>24.79</v>
+      </c>
+      <c r="G36">
+        <v>10.68</v>
+      </c>
+      <c r="H36">
+        <v>2.25</v>
+      </c>
+      <c r="I36">
+        <v>5.88</v>
+      </c>
+      <c r="J36">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="37">
+        <v>30</v>
+      </c>
+      <c r="D37" s="37">
+        <v>184</v>
+      </c>
+      <c r="E37" s="37">
+        <v>2013</v>
+      </c>
+      <c r="F37" s="37">
+        <v>25.04</v>
+      </c>
+      <c r="G37" s="37">
+        <v>9.17</v>
+      </c>
+      <c r="H37" s="37">
+        <v>3.27</v>
+      </c>
+      <c r="I37" s="37">
+        <v>6.13</v>
+      </c>
+      <c r="J37" s="37">
+        <v>20.07</v>
+      </c>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+    </row>
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38">
+        <v>47</v>
+      </c>
+      <c r="D38">
+        <v>376</v>
+      </c>
+      <c r="E38">
+        <v>2020</v>
+      </c>
+      <c r="F38">
+        <v>24.23</v>
+      </c>
+      <c r="G38">
+        <v>63.53</v>
+      </c>
+      <c r="H38">
+        <v>0.74</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="37">
+        <v>40</v>
+      </c>
+      <c r="D39" s="37">
+        <v>380</v>
+      </c>
+      <c r="E39" s="37">
+        <v>2020</v>
+      </c>
+      <c r="F39" s="37">
+        <v>40.22</v>
+      </c>
+      <c r="G39" s="37">
+        <v>74.7</v>
+      </c>
+      <c r="H39" s="37">
+        <v>0.54</v>
+      </c>
+      <c r="I39" s="37">
+        <v>9.5</v>
+      </c>
+      <c r="J39" s="37">
+        <v>5.09</v>
+      </c>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+    </row>
+    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+    </row>
+    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+    </row>
+    <row r="48" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="37">
+        <v>39</v>
+      </c>
+      <c r="D48" s="37">
+        <v>156.1</v>
+      </c>
+      <c r="E48" s="37">
+        <v>18.7</v>
+      </c>
+      <c r="F48" s="37">
+        <v>31.1</v>
+      </c>
+      <c r="G48" s="37">
+        <v>52</v>
+      </c>
+      <c r="H48" s="37">
+        <v>169.8</v>
+      </c>
+      <c r="I48" s="37">
+        <v>1966</v>
+      </c>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+    </row>
+    <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>32</v>
+      </c>
+      <c r="D49">
+        <v>147.6</v>
+      </c>
+      <c r="E49">
+        <v>18.5</v>
+      </c>
+      <c r="F49">
+        <v>12.4</v>
+      </c>
+      <c r="G49">
+        <v>47</v>
+      </c>
+      <c r="H49">
+        <v>27</v>
+      </c>
+      <c r="I49">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="37">
+        <v>19.3</v>
+      </c>
+      <c r="D50" s="37">
+        <v>98.4</v>
+      </c>
+      <c r="E50" s="37">
+        <v>10.1</v>
+      </c>
+      <c r="F50" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="G50" s="37">
+        <v>19</v>
+      </c>
+      <c r="H50" s="37">
+        <v>63</v>
+      </c>
+      <c r="I50" s="37">
+        <v>1940</v>
+      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+    </row>
+    <row r="51" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>25.9</v>
+      </c>
+      <c r="D51">
+        <v>34</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>35</v>
+      </c>
+      <c r="H51">
+        <v>216</v>
+      </c>
+      <c r="I51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="37">
+        <v>19.2</v>
+      </c>
+      <c r="D52" s="37">
+        <v>67</v>
+      </c>
+      <c r="E52" s="37">
+        <v>14</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="37">
+        <v>23</v>
+      </c>
+      <c r="H52" s="37">
+        <v>131</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A30:N32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="A43:N45"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N11"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="M4:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>